--- a/danh_sach_nguoi_yeu_cau.xlsx
+++ b/danh_sach_nguoi_yeu_cau.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Hồ Linh My</t>
+          <t>Dương Thảo Ngọc</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>24/02/1976</t>
+          <t>05/01/1993</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>001176898651</t>
+          <t>026193156451</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
@@ -452,7 +452,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -472,22 +472,22 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hà Hải Khoa</t>
+          <t>Ngô Nhật An</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24/09/1979</t>
+          <t>02/12/1988</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001079979744</t>
+          <t>026088701495</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -562,22 +562,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -604,22 +604,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mai Hữu Cường</t>
+          <t>Lương Hạnh Xuân</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11/06/1970</t>
+          <t>02/02/1996</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001070498395</t>
+          <t>026196940788</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -652,22 +652,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -694,12 +694,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Đào Linh Anh</t>
+          <t>Hà Thị Xuân</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17/01/1970</t>
+          <t>18/01/1986</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>001170168411</t>
+          <t>026186587334</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -742,22 +742,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -784,22 +784,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lý Hữu Dương</t>
+          <t>Ngô Thu Hà</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>03/06/1975</t>
+          <t>05/07/1983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001075712125</t>
+          <t>026183293659</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -832,22 +832,22 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -874,22 +874,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Võ Huy Cường</t>
+          <t>Trương Thị Linh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24/05/1979</t>
+          <t>03/12/1990</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>001079989634</t>
+          <t>026190827927</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -902,7 +902,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -922,22 +922,22 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -964,22 +964,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đỗ Đình Thủy</t>
+          <t>Lê Linh My</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28/08/1980</t>
+          <t>13/12/1988</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>001080025048</t>
+          <t>026188225587</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1054,22 +1054,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dương Thảo Anh</t>
+          <t>Mai Thành Hiếu</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03/12/1971</t>
+          <t>01/06/1993</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>001171158890</t>
+          <t>026093913948</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1102,22 +1102,22 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1144,12 +1144,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lê Minh Dũng</t>
+          <t>Võ Phước Dương</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>07/04/1973</t>
+          <t>03/09/1980</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>001073141856</t>
+          <t>026080624174</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1192,22 +1192,22 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1234,22 +1234,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mai Linh Diễm</t>
+          <t>Phạm Đình Thủy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18/11/1971</t>
+          <t>08/06/1993</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>001171779927</t>
+          <t>026093571815</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1282,22 +1282,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1324,12 +1324,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phạm Thu Xuân</t>
+          <t>Lý Ngọc Trang</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04/08/1970</t>
+          <t>05/05/1989</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>001170825713</t>
+          <t>026189924365</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1372,22 +1372,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1414,12 +1414,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lê Hạnh Phương</t>
+          <t>Đoàn Thu Phương</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/12/1979</t>
+          <t>16/06/1994</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>001179606544</t>
+          <t>026194867177</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1504,22 +1504,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Đinh Minh Thủy</t>
+          <t>Đặng Thảo Nhi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14/03/1973</t>
+          <t>12/05/1995</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>001073248073</t>
+          <t>026195656631</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1552,22 +1552,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1594,12 +1594,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Vương Tuấn Khánh</t>
+          <t>Dương Phúc Minh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>15/12/1977</t>
+          <t>05/01/1988</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>001077788756</t>
+          <t>026088523997</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1642,22 +1642,22 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đỗ Linh Trang</t>
+          <t>Phạm Thị Anh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13/10/1973</t>
+          <t>01/06/1981</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>001173119526</t>
+          <t>026181806005</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1732,22 +1732,22 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1774,22 +1774,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bùi Ngọc Oanh</t>
+          <t>Lý Kiên Dương</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19/11/1971</t>
+          <t>26/10/1996</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>001171842832</t>
+          <t>026096964855</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1864,12 +1864,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Phạm Thị Yến</t>
+          <t>Thái Thảo Xuân</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08/08/1978</t>
+          <t>02/10/1990</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>001178580267</t>
+          <t>026190757357</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1912,22 +1912,22 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1954,22 +1954,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lê Hạnh Oanh</t>
+          <t>Thái Đức Hưng</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22/06/1970</t>
+          <t>18/02/1989</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>001170924794</t>
+          <t>026089883557</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2002,22 +2002,22 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2044,22 +2044,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hồ Huy Quân</t>
+          <t>Lê Thảo Lan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09/01/1977</t>
+          <t>10/01/1982</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>001077545923</t>
+          <t>026182088692</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2092,22 +2092,22 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2134,22 +2134,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương Đình An</t>
+          <t>Lê Ngọc Phương</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11/06/1976</t>
+          <t>21/07/1988</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>001076731852</t>
+          <t>026188687675</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vương Thu Quỳnh</t>
+          <t>Lê Ngọc Mai</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14/03/1974</t>
+          <t>18/05/1981</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>001174791179</t>
+          <t>026181419367</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2272,22 +2272,22 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2314,12 +2314,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Trần Hạnh Hạnh</t>
+          <t>Hà Phương Trâm</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>03/11/1979</t>
+          <t>05/03/1986</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>001179415467</t>
+          <t>026186293379</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2404,12 +2404,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Võ Huy Quân</t>
+          <t>Đoàn Công Minh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14/06/1977</t>
+          <t>12/07/1981</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>001077594415</t>
+          <t>026081495451</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2452,22 +2452,22 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2494,22 +2494,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dương Huy Phúc</t>
+          <t>Lương Thảo Ngọc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22/02/1974</t>
+          <t>25/02/1982</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>001074381047</t>
+          <t>026182603351</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2542,22 +2542,22 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2584,22 +2584,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đinh Long Hải</t>
+          <t>Võ Thu Oanh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28/01/1971</t>
+          <t>09/03/1991</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>001071611587</t>
+          <t>026191384500</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2632,22 +2632,22 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2657,12 +2657,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2674,22 +2674,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Trần Thảo Hạnh</t>
+          <t>Bùi Nhật Dương</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24/04/1976</t>
+          <t>11/10/1995</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>001176143155</t>
+          <t>026095378527</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2722,22 +2722,22 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2764,22 +2764,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Thái Thị Mai</t>
+          <t>Thái Sơn Khánh</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26/09/1972</t>
+          <t>12/08/1994</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>001172622691</t>
+          <t>026094845113</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2812,22 +2812,22 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2837,12 +2837,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -2854,12 +2854,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ngô Thu Phương</t>
+          <t>Huỳnh Thu Oanh</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20/02/1980</t>
+          <t>08/10/1991</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>001180684374</t>
+          <t>026191764617</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2902,22 +2902,22 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -2944,22 +2944,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đinh Minh Hải</t>
+          <t>Đào Thảo Trâm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13/10/1977</t>
+          <t>02/06/1988</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>001077650139</t>
+          <t>026188720206</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2992,22 +2992,22 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3017,12 +3017,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3034,22 +3034,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mai Hạnh Oanh</t>
+          <t>Bùi Văn Dương</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>18/03/1972</t>
+          <t>18/06/1993</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>001172632555</t>
+          <t>026093437086</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3082,22 +3082,22 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3124,12 +3124,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lê Khánh Tuấn</t>
+          <t>Huỳnh Phước Khánh</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23/03/1972</t>
+          <t>28/06/1984</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>001072024720</t>
+          <t>026084193667</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3172,22 +3172,22 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3197,12 +3197,12 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3214,22 +3214,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lương Khoa Tuấn</t>
+          <t>Trần Ngọc Hạnh</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>03/07/1976</t>
+          <t>11/11/1988</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>001076236293</t>
+          <t>026188180365</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3262,22 +3262,22 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3304,12 +3304,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hoàng Ngọc Lan</t>
+          <t>Trịnh Thảo Lan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18/12/1975</t>
+          <t>25/10/1986</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>001175553682</t>
+          <t>026186743281</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3352,22 +3352,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3394,12 +3394,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Đinh Kiên Thành</t>
+          <t>Lương Quốc Linh</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26/11/1973</t>
+          <t>16/05/1987</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>001073168995</t>
+          <t>026087983597</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3442,22 +3442,22 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3484,22 +3484,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Mai</t>
+          <t>Dương Long Hải</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06/05/1975</t>
+          <t>06/09/1988</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>001175235725</t>
+          <t>026088179905</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3532,22 +3532,22 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3574,12 +3574,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Võ Hạnh Nhi</t>
+          <t>Vương Ngọc Lan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>28/10/1980</t>
+          <t>24/06/1992</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>001180131093</t>
+          <t>026192499478</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3622,22 +3622,22 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3647,12 +3647,12 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3664,12 +3664,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vũ Tuấn Kiên</t>
+          <t>Lê Đức Long</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>18/04/1970</t>
+          <t>17/12/1982</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>001070788687</t>
+          <t>026082398397</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3712,22 +3712,22 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3737,12 +3737,12 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Vũ Thị Phương</t>
+          <t>Huỳnh Thảo Diễm</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23/10/1975</t>
+          <t>19/04/1994</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>001175386618</t>
+          <t>026194107955</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3802,22 +3802,22 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -3844,22 +3844,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dương Thu Trâm</t>
+          <t>Hà Gia An</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07/12/1980</t>
+          <t>09/08/1984</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>001180061504</t>
+          <t>026084199572</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3892,22 +3892,22 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -3934,22 +3934,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lương Ngọc Xuân</t>
+          <t>Đoàn Nhật Quân</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22/04/1977</t>
+          <t>05/05/1992</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>001177543057</t>
+          <t>026092860715</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3982,22 +3982,22 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4024,12 +4024,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hà Linh Anh</t>
+          <t>Hoàng Hạnh Oanh</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>09/05/1974</t>
+          <t>21/04/1983</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>001174430217</t>
+          <t>026183761707</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -4072,22 +4072,22 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4114,22 +4114,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Vương Tuấn Khánh</t>
+          <t>Dương Phương My</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15/12/1970</t>
+          <t>17/05/1990</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>001070751388</t>
+          <t>026190031570</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -4162,22 +4162,22 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4187,12 +4187,12 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4204,12 +4204,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Trịnh Phúc Kiên</t>
+          <t>Trịnh Sơn Hải</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07/01/1980</t>
+          <t>26/05/1985</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>001080026813</t>
+          <t>026085847815</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4252,22 +4252,22 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4294,22 +4294,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Đinh Phúc Dũng</t>
+          <t>Hồ Thu Linh</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18/04/1975</t>
+          <t>14/09/1988</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>001075468716</t>
+          <t>026188359469</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4342,22 +4342,22 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dương Phước Hải</t>
+          <t>Phan Minh Minh</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10/09/1976</t>
+          <t>25/02/1992</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>001076421469</t>
+          <t>026092662551</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4432,22 +4432,22 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4474,22 +4474,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ngô Ngọc Hà</t>
+          <t>Vũ Công Hưng</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>02/03/1971</t>
+          <t>13/09/1993</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>001171232786</t>
+          <t>026093238315</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4522,22 +4522,22 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4547,12 +4547,12 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4564,22 +4564,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Phạm Hữu Khoa</t>
+          <t>Phan Hạnh Nhi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11/02/1974</t>
+          <t>11/05/1992</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>001074072288</t>
+          <t>026192944610</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4612,22 +4612,22 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4637,12 +4637,12 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -4654,22 +4654,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Thái Tuấn Kiên</t>
+          <t>Thái Thu Nhi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/03/1979</t>
+          <t>28/09/1987</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>001079558412</t>
+          <t>026187568760</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4702,22 +4702,22 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4727,12 +4727,12 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -4744,22 +4744,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hoàng Long Dũng</t>
+          <t>Đào Linh Hạnh</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11/02/1971</t>
+          <t>07/02/1993</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>001071915757</t>
+          <t>026193249016</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4792,22 +4792,22 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4817,12 +4817,12 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -4834,22 +4834,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Đinh Sơn Long</t>
+          <t>Mai Thảo Thảo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10/10/1980</t>
+          <t>11/07/1992</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>001080348177</t>
+          <t>026192511937</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4882,22 +4882,22 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -4924,22 +4924,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Đoàn Thu Trâm</t>
+          <t>Lương Đình Tuấn</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22/01/1974</t>
+          <t>22/04/1981</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>001174414446</t>
+          <t>026081245603</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4972,22 +4972,22 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4997,12 +4997,12 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -5014,12 +5014,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Hoàng Thảo Ngọc</t>
+          <t>Trần Thảo Trang</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>23/11/1970</t>
+          <t>14/10/1990</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>001170030560</t>
+          <t>026190941973</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -5062,22 +5062,22 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -5087,12 +5087,12 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -5104,22 +5104,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Đào Quốc Cường</t>
+          <t>Hoàng Linh Cẩm</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23/10/1976</t>
+          <t>22/04/1985</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>001076515389</t>
+          <t>026185765536</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -5152,22 +5152,22 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5177,12 +5177,12 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -5194,22 +5194,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Thái Thu Phương</t>
+          <t>Đinh Hải Hải</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>26/05/1979</t>
+          <t>28/03/1981</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>001179495801</t>
+          <t>026081979069</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5267,12 +5267,12 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -5284,12 +5284,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Phạm Thảo Yến</t>
+          <t>Phan Linh Nhi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>24/11/1976</t>
+          <t>12/10/1982</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>001176618393</t>
+          <t>026182791524</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -5332,22 +5332,22 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5357,12 +5357,12 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5374,12 +5374,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Lý Sơn Quân</t>
+          <t>Dương Khoa Minh</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11/02/1974</t>
+          <t>23/11/1987</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>001074542801</t>
+          <t>026087395197</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5422,22 +5422,22 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -5464,22 +5464,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Đinh Ngọc Linh</t>
+          <t>Trần Hữu Dương</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>11/04/1974</t>
+          <t>05/08/1985</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>001174753562</t>
+          <t>026085410003</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5512,22 +5512,22 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5537,12 +5537,12 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -5554,22 +5554,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mai Văn Hưng</t>
+          <t>Đào Thảo Cẩm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>02/11/1979</t>
+          <t>09/03/1995</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>001079261836</t>
+          <t>026195309709</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5602,22 +5602,22 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5627,12 +5627,12 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -5644,22 +5644,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nguyễn Thảo Thảo</t>
+          <t>Lương Hữu Bình</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>07/05/1979</t>
+          <t>19/05/1980</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>001179785672</t>
+          <t>026080538558</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5717,12 +5717,12 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -5734,22 +5734,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Đoàn Thị Hà</t>
+          <t>Vũ Huy Thủy</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>26/01/1980</t>
+          <t>19/03/1996</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>001180072995</t>
+          <t>026096455087</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5782,22 +5782,22 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Tỉnh Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Huyện Tam Dương</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Xã Hoàng Hoa</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Hoàng Hoa</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5807,12 +5807,12 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>07/06/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>08/06/2023</t>
+          <t>17/06/2023</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">

--- a/danh_sach_nguoi_yeu_cau.xlsx
+++ b/danh_sach_nguoi_yeu_cau.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,22 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Dương Thảo Ngọc</t>
+          <t>Đào Phúc Dương</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>05/01/1993</t>
+          <t>13/01/1980</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>026193156451</t>
+          <t>001080485635</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
@@ -452,7 +452,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -472,22 +472,22 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -514,22 +514,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngô Nhật An</t>
+          <t>Bùi Linh Trâm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02/12/1988</t>
+          <t>12/12/1994</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>026088701495</t>
+          <t>001194310547</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -562,22 +562,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -604,12 +604,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lương Hạnh Xuân</t>
+          <t>Đinh Ngọc Thảo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02/02/1996</t>
+          <t>06/08/1987</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>026196940788</t>
+          <t>001187877758</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -652,22 +652,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -694,12 +694,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hà Thị Xuân</t>
+          <t>Lê Ngọc My</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18/01/1986</t>
+          <t>03/07/1984</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>026186587334</t>
+          <t>001184589705</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -742,22 +742,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -784,12 +784,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ngô Thu Hà</t>
+          <t>Lý Thu Anh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>05/07/1983</t>
+          <t>11/07/1982</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>026183293659</t>
+          <t>001182596658</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -832,22 +832,22 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -874,12 +874,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trương Thị Linh</t>
+          <t>Phan Linh Hà</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>03/12/1990</t>
+          <t>15/06/1986</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>026190827927</t>
+          <t>001186485755</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -902,7 +902,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -922,22 +922,22 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -964,22 +964,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lê Linh My</t>
+          <t>Phạm Khoa Khánh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13/12/1988</t>
+          <t>25/06/1980</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>026188225587</t>
+          <t>001080208487</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mai Thành Hiếu</t>
+          <t>Đinh Phước Dương</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/06/1993</t>
+          <t>27/12/1992</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>026093913948</t>
+          <t>001092561715</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1102,22 +1102,22 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1144,12 +1144,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Võ Phước Dương</t>
+          <t>Hoàng Công An</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>03/09/1980</t>
+          <t>04/01/1987</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>026080624174</t>
+          <t>001087063952</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1192,22 +1192,22 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1234,22 +1234,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phạm Đình Thủy</t>
+          <t>Đặng Linh Xuân</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08/06/1993</t>
+          <t>12/07/1990</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>026093571815</t>
+          <t>001190840418</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1282,22 +1282,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1324,22 +1324,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lý Ngọc Trang</t>
+          <t>Đỗ Sơn Hiếu</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05/05/1989</t>
+          <t>24/04/1980</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>026189924365</t>
+          <t>001080993617</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1372,22 +1372,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1414,22 +1414,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Đoàn Thu Phương</t>
+          <t>Phạm Huy Sơn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16/06/1994</t>
+          <t>10/07/1983</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>026194867177</t>
+          <t>001083885994</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1504,22 +1504,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Đặng Thảo Nhi</t>
+          <t>Lý Gia Hải</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/05/1995</t>
+          <t>28/12/1989</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>026195656631</t>
+          <t>001089373921</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1552,22 +1552,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1594,22 +1594,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dương Phúc Minh</t>
+          <t>Huỳnh Ngọc My</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>05/01/1988</t>
+          <t>16/02/1987</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>026088523997</t>
+          <t>001187028765</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1642,22 +1642,22 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phạm Thị Anh</t>
+          <t>Trịnh Phương Yến</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/06/1981</t>
+          <t>21/11/1989</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>026181806005</t>
+          <t>001189724458</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1732,22 +1732,22 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1774,12 +1774,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lý Kiên Dương</t>
+          <t>Trịnh Sơn Dương</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>26/10/1996</t>
+          <t>15/07/1992</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>026096964855</t>
+          <t>001092086897</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1864,12 +1864,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thái Thảo Xuân</t>
+          <t>Vương Hạnh Diễm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02/10/1990</t>
+          <t>21/02/1982</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>026190757357</t>
+          <t>001182074823</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1912,22 +1912,22 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1954,12 +1954,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Thái Đức Hưng</t>
+          <t>Ngô Quốc Minh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18/02/1989</t>
+          <t>27/12/1982</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>026089883557</t>
+          <t>001082500817</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2002,22 +2002,22 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2044,22 +2044,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lê Thảo Lan</t>
+          <t>Hà Công Sơn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10/01/1982</t>
+          <t>25/10/1996</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>026182088692</t>
+          <t>001096295526</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2092,22 +2092,22 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2134,12 +2134,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lê Ngọc Phương</t>
+          <t>Hoàng Phương Yến</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21/07/1988</t>
+          <t>16/03/1983</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>026188687675</t>
+          <t>001183766169</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2224,22 +2224,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lê Ngọc Mai</t>
+          <t>Lê Quốc Long</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18/05/1981</t>
+          <t>16/02/1992</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>026181419367</t>
+          <t>001092676897</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2272,22 +2272,22 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2314,12 +2314,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hà Phương Trâm</t>
+          <t>Hoàng Thảo Quỳnh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05/03/1986</t>
+          <t>02/03/1994</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>026186293379</t>
+          <t>001194087298</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2404,22 +2404,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đoàn Công Minh</t>
+          <t>Hà Thảo Diễm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12/07/1981</t>
+          <t>13/02/1995</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>026081495451</t>
+          <t>001195079301</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2452,22 +2452,22 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương Thảo Ngọc</t>
+          <t>Lương Ngọc Trang</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>25/02/1982</t>
+          <t>08/07/1987</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>026182603351</t>
+          <t>001187077357</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2542,22 +2542,22 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2584,12 +2584,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Võ Thu Oanh</t>
+          <t>Vũ Thảo Hà</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09/03/1991</t>
+          <t>28/06/1987</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>026191384500</t>
+          <t>001187712470</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2632,22 +2632,22 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2674,22 +2674,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bùi Nhật Dương</t>
+          <t>Trịnh Thu Lan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11/10/1995</t>
+          <t>24/06/1995</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>026095378527</t>
+          <t>001195342609</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2722,22 +2722,22 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2764,22 +2764,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Thái Sơn Khánh</t>
+          <t>Phan Thị My</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12/08/1994</t>
+          <t>04/05/1986</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>026094845113</t>
+          <t>001186999861</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2812,22 +2812,22 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2854,22 +2854,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Huỳnh Thu Oanh</t>
+          <t>Lê Đình Dương</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>08/10/1991</t>
+          <t>22/06/1988</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>026191764617</t>
+          <t>001088347896</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2902,22 +2902,22 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2944,22 +2944,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đào Thảo Trâm</t>
+          <t>Trịnh Phước Phúc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02/06/1988</t>
+          <t>17/03/1994</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>026188720206</t>
+          <t>001094384415</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2992,22 +2992,22 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3034,12 +3034,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bùi Văn Dương</t>
+          <t>Ngô Khoa Dũng</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>18/06/1993</t>
+          <t>13/02/1986</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>026093437086</t>
+          <t>001086162754</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3082,22 +3082,22 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3124,22 +3124,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Huỳnh Phước Khánh</t>
+          <t>Trịnh Linh Oanh</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28/06/1984</t>
+          <t>10/10/1985</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>026084193667</t>
+          <t>001185773777</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3172,22 +3172,22 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Trần Ngọc Hạnh</t>
+          <t>Trịnh Phương My</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11/11/1988</t>
+          <t>15/09/1994</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>026188180365</t>
+          <t>001194337002</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3262,22 +3262,22 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3304,22 +3304,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Trịnh Thảo Lan</t>
+          <t>Lương Đức Khánh</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>25/10/1986</t>
+          <t>21/08/1980</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>026186743281</t>
+          <t>001080953008</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3352,22 +3352,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3394,12 +3394,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lương Quốc Linh</t>
+          <t>Đào Gia Dũng</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16/05/1987</t>
+          <t>05/11/1990</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>026087983597</t>
+          <t>001090016784</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3442,22 +3442,22 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3484,12 +3484,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dương Long Hải</t>
+          <t>Vũ Phước Linh</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>06/09/1988</t>
+          <t>20/06/1994</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>026088179905</t>
+          <t>001094882269</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3532,22 +3532,22 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3574,22 +3574,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vương Ngọc Lan</t>
+          <t>Mai Văn Minh</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>24/06/1992</t>
+          <t>18/12/1991</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>026192499478</t>
+          <t>001091783244</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3622,22 +3622,22 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Tỉnh Vĩnh Phúc</t>
+          <t>Thành Phố Hà Nội</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Huyện Tam Dương</t>
+          <t>Huyện Quốc Oai</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Xã Hoàng Hoa</t>
+          <t>Xã Thạch Thán</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Hoàng Hoa</t>
+          <t>Thạch Thán</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3656,2166 +3656,6 @@
         </is>
       </c>
       <c r="T36" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Lê Đức Long</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>17/12/1982</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>026082398397</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Huỳnh Thảo Diễm</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>19/04/1994</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>026194107955</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Hà Gia An</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>09/08/1984</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>026084199572</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Đoàn Nhật Quân</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>05/05/1992</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>026092860715</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Hoàng Hạnh Oanh</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>21/04/1983</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>026183761707</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Dương Phương My</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>17/05/1990</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>026190031570</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Trịnh Sơn Hải</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>26/05/1985</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>026085847815</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Hồ Thu Linh</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>14/09/1988</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>026188359469</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Phan Minh Minh</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>25/02/1992</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>026092662551</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Vũ Công Hưng</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>13/09/1993</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>026093238315</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Phan Hạnh Nhi</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>11/05/1992</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>026192944610</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Thái Thu Nhi</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>28/09/1987</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>026187568760</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Đào Linh Hạnh</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>07/02/1993</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>026193249016</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mai Thảo Thảo</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>11/07/1992</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>026192511937</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Lương Đình Tuấn</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>22/04/1981</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>026081245603</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Trần Thảo Trang</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>14/10/1990</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>026190941973</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Hoàng Linh Cẩm</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>22/04/1985</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>026185765536</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Đinh Hải Hải</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>28/03/1981</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>026081979069</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Phan Linh Nhi</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>12/10/1982</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>026182791524</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Dương Khoa Minh</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>23/11/1987</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>026087395197</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Trần Hữu Dương</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>05/08/1985</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>026085410003</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Đào Thảo Cẩm</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>09/03/1995</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>026195309709</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Lương Hữu Bình</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>19/05/1980</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>026080538558</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Vũ Huy Thủy</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>19/03/1996</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>026096455087</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Tỉnh Vĩnh Phúc</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Huyện Tam Dương</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Xã Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Hoàng Hoa</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
         <is>
           <t>Du Lịch</t>
         </is>

--- a/danh_sach_nguoi_yeu_cau.xlsx
+++ b/danh_sach_nguoi_yeu_cau.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Đào Phúc Dương</t>
+          <t>Võ Quốc Khánh</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>13/01/1980</t>
+          <t>13/03/1985</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>001080485635</t>
+          <t>001085123736</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
@@ -452,7 +452,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -477,17 +477,17 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bùi Linh Trâm</t>
+          <t>Đinh Linh Anh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/12/1994</t>
+          <t>05/10/1981</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001194310547</t>
+          <t>001181999310</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -604,22 +604,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Đinh Ngọc Thảo</t>
+          <t>Phạm Long Long</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06/08/1987</t>
+          <t>09/02/1988</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001187877758</t>
+          <t>001088451359</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -694,12 +694,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lê Ngọc My</t>
+          <t>Dương Hạnh Ngọc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>03/07/1984</t>
+          <t>09/11/1999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>001184589705</t>
+          <t>001199829828</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -747,17 +747,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -784,12 +784,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lý Thu Anh</t>
+          <t>Mai Phương Diễm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/07/1982</t>
+          <t>02/08/1987</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001182596658</t>
+          <t>001187740319</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -837,17 +837,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -874,12 +874,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phan Linh Hà</t>
+          <t>Ngô Thảo Ngọc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15/06/1986</t>
+          <t>22/03/1992</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>001186485755</t>
+          <t>001192709144</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -902,7 +902,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -964,22 +964,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phạm Khoa Khánh</t>
+          <t>Hoàng Thị My</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25/06/1980</t>
+          <t>28/03/1988</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>001080208487</t>
+          <t>001188936120</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đinh Phước Dương</t>
+          <t>Võ Gia Dũng</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27/12/1992</t>
+          <t>02/06/1996</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>001092561715</t>
+          <t>001096991450</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1144,12 +1144,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hoàng Công An</t>
+          <t>Lý Đức Tuấn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04/01/1987</t>
+          <t>04/08/1983</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>001087063952</t>
+          <t>001083447483</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1197,17 +1197,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1234,12 +1234,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Đặng Linh Xuân</t>
+          <t>Đặng Hạnh My</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/07/1990</t>
+          <t>15/06/1985</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>001190840418</t>
+          <t>001185793121</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1324,22 +1324,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Đỗ Sơn Hiếu</t>
+          <t>Mai Hạnh Trâm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24/04/1980</t>
+          <t>03/04/1988</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>001080993617</t>
+          <t>001188085580</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1377,17 +1377,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1414,22 +1414,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phạm Huy Sơn</t>
+          <t>Hồ Ngọc Mai</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/07/1983</t>
+          <t>07/08/1984</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>001083885994</t>
+          <t>001184979496</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1467,17 +1467,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lý Gia Hải</t>
+          <t>Đặng Long Tuấn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>28/12/1989</t>
+          <t>12/03/1985</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>001089373921</t>
+          <t>001085151945</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1557,17 +1557,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1594,22 +1594,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Huỳnh Ngọc My</t>
+          <t>Trương Khoa Khoa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16/02/1987</t>
+          <t>22/04/1988</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>001187028765</t>
+          <t>001088735628</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trịnh Phương Yến</t>
+          <t>Trương Phương Trang</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21/11/1989</t>
+          <t>20/02/1981</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>001189724458</t>
+          <t>001181799002</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1774,22 +1774,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trịnh Sơn Dương</t>
+          <t>Trần Hạnh Lan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15/07/1992</t>
+          <t>27/08/1984</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>001092086897</t>
+          <t>001184274240</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1864,22 +1864,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vương Hạnh Diễm</t>
+          <t>Đỗ Thành Linh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21/02/1982</t>
+          <t>01/04/1988</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>001182074823</t>
+          <t>001088995755</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1917,17 +1917,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1954,22 +1954,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ngô Quốc Minh</t>
+          <t>Vũ Hạnh Hạnh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27/12/1982</t>
+          <t>27/05/1987</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>001082500817</t>
+          <t>001187796102</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2007,17 +2007,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2027,12 +2027,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2044,12 +2044,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hà Công Sơn</t>
+          <t>Trịnh Phúc Thành</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25/10/1996</t>
+          <t>22/09/1984</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>001096295526</t>
+          <t>001084493763</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2134,22 +2134,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hoàng Phương Yến</t>
+          <t>Ngô Hải Sơn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16/03/1983</t>
+          <t>07/12/1982</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>001183766169</t>
+          <t>001082909889</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2224,22 +2224,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lê Quốc Long</t>
+          <t>Mai Thảo Hạnh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16/02/1992</t>
+          <t>12/07/1994</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>001092676897</t>
+          <t>001194174291</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2314,12 +2314,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hoàng Thảo Quỳnh</t>
+          <t>Đinh Thu Mai</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02/03/1994</t>
+          <t>03/04/1987</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>001194087298</t>
+          <t>001187085365</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2404,12 +2404,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hà Thảo Diễm</t>
+          <t>Đỗ Thu Mai</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13/02/1995</t>
+          <t>15/04/1982</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>001195079301</t>
+          <t>001182113647</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2457,17 +2457,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2494,12 +2494,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương Ngọc Trang</t>
+          <t>Võ Phương Lan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08/07/1987</t>
+          <t>06/10/1982</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>001187077357</t>
+          <t>001182624288</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2547,17 +2547,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2584,12 +2584,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vũ Thảo Hà</t>
+          <t>Vũ Ngọc Phương</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28/06/1987</t>
+          <t>17/05/1999</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>001187712470</t>
+          <t>001199206806</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2637,17 +2637,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2657,12 +2657,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2674,22 +2674,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Trịnh Thu Lan</t>
+          <t>Hà Phước Thủy</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24/06/1995</t>
+          <t>06/01/1996</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>001195342609</t>
+          <t>001096941769</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2727,17 +2727,17 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2764,12 +2764,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phan Thị My</t>
+          <t>Hà Thảo Bích</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>04/05/1986</t>
+          <t>26/04/1999</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>001186999861</t>
+          <t>001199434871</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2817,17 +2817,17 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Huyện Quốc Oai</t>
+          <t>Huyện Sóc Sơn</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Xã Thạch Thán</t>
+          <t>Xã Bắc Sơn</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Thạch Thán</t>
+          <t>Bắc Sơn</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2837,825 +2837,15 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>17/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Lê Đình Dương</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>22/06/1988</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>001088347896</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Trịnh Phước Phúc</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>17/03/1994</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>001094384415</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Ngô Khoa Dũng</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>13/02/1986</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>001086162754</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Trịnh Linh Oanh</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>10/10/1985</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>001185773777</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Trịnh Phương My</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>15/09/1994</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>001194337002</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Lương Đức Khánh</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>21/08/1980</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>001080953008</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Đào Gia Dũng</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>05/11/1990</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>001090016784</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Vũ Phước Linh</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>20/06/1994</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>001094882269</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mai Văn Minh</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>18/12/1991</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>001091783244</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Huyện Quốc Oai</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Xã Thạch Thán</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Thạch Thán</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>16/06/2023</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>17/06/2023</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
         <is>
           <t>Du Lịch</t>
         </is>

--- a/danh_sach_nguoi_yeu_cau.xlsx
+++ b/danh_sach_nguoi_yeu_cau.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Võ Quốc Khánh</t>
+          <t>Thái Đức Khánh</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>13/03/1985</t>
+          <t>23/09/1989</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>001085123736</t>
+          <t>001089700952</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
@@ -497,12 +497,12 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Đinh Linh Anh</t>
+          <t>Phạm Thị Hạnh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>05/10/1981</t>
+          <t>26/03/1989</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001181999310</t>
+          <t>001189162218</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -587,12 +587,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -604,12 +604,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phạm Long Long</t>
+          <t>Hoàng Quốc Khoa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09/02/1988</t>
+          <t>27/02/1994</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001088451359</t>
+          <t>001094718200</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -677,12 +677,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -694,22 +694,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dương Hạnh Ngọc</t>
+          <t>Thái Thành Thủy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09/11/1999</t>
+          <t>22/04/1997</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>001199829828</t>
+          <t>001097085189</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -767,12 +767,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -784,12 +784,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mai Phương Diễm</t>
+          <t>Thái Hạnh Linh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02/08/1987</t>
+          <t>02/10/1989</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001187740319</t>
+          <t>001189082411</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -857,12 +857,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -874,22 +874,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ngô Thảo Ngọc</t>
+          <t>Vũ Minh Tuấn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22/03/1992</t>
+          <t>24/06/1993</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>001192709144</t>
+          <t>001093009053</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -947,12 +947,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -964,12 +964,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hoàng Thị My</t>
+          <t>Phạm Phương Hà</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28/03/1988</t>
+          <t>23/10/1995</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>001188936120</t>
+          <t>001195781983</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1037,12 +1037,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Võ Gia Dũng</t>
+          <t>Lý Kiên Dương</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02/06/1996</t>
+          <t>23/06/1997</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>001096991450</t>
+          <t>001097843165</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1127,12 +1127,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1144,12 +1144,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lý Đức Tuấn</t>
+          <t>Mai Phước Hiếu</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04/08/1983</t>
+          <t>15/12/1988</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>001083447483</t>
+          <t>001088795979</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1234,12 +1234,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Đặng Hạnh My</t>
+          <t>Trương Thị Bích</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15/06/1985</t>
+          <t>27/08/1980</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>001185793121</t>
+          <t>001180830883</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1324,12 +1324,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mai Hạnh Trâm</t>
+          <t>Vũ Thảo Trang</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>03/04/1988</t>
+          <t>13/05/1999</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>001188085580</t>
+          <t>001199388968</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1397,12 +1397,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1414,22 +1414,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hồ Ngọc Mai</t>
+          <t>Mai Tuấn Cường</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>07/08/1984</t>
+          <t>14/05/1994</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>001184979496</t>
+          <t>001094169625</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1504,22 +1504,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Đặng Long Tuấn</t>
+          <t>Đặng Hạnh Linh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/03/1985</t>
+          <t>15/02/1999</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>001085151945</t>
+          <t>001199695884</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1594,12 +1594,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Trương Khoa Khoa</t>
+          <t>Hà Phúc Dũng</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22/04/1988</t>
+          <t>02/12/1996</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>001088735628</t>
+          <t>001096977494</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1667,12 +1667,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trương Phương Trang</t>
+          <t>Đoàn Linh Thảo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20/02/1981</t>
+          <t>24/10/1984</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>001181799002</t>
+          <t>001184503353</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1757,12 +1757,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1774,12 +1774,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trần Hạnh Lan</t>
+          <t>Võ Ngọc Nhi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27/08/1984</t>
+          <t>07/01/1994</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>001184274240</t>
+          <t>001194182603</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1864,12 +1864,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đỗ Thành Linh</t>
+          <t>Huỳnh Phúc Minh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/04/1988</t>
+          <t>22/09/1997</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>001088995755</t>
+          <t>001097762677</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1954,22 +1954,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vũ Hạnh Hạnh</t>
+          <t>Hoàng Nhật Linh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27/05/1987</t>
+          <t>02/05/1999</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>001187796102</t>
+          <t>001099206618</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -2027,12 +2027,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2044,12 +2044,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Trịnh Phúc Thành</t>
+          <t>Thái Công Hải</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22/09/1984</t>
+          <t>22/10/1998</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>001084493763</t>
+          <t>001098585726</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2117,12 +2117,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2134,12 +2134,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ngô Hải Sơn</t>
+          <t>Thái Khoa Kiên</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>07/12/1982</t>
+          <t>10/11/1995</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>001082909889</t>
+          <t>001095539779</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -2207,645 +2207,15 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>30/06/2023</t>
+          <t>02/07/2023</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>03/07/2023</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mai Thảo Hạnh</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>12/07/1994</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>001194174291</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Đinh Thu Mai</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>03/04/1987</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>001187085365</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Đỗ Thu Mai</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>15/04/1982</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>001182113647</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Võ Phương Lan</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>06/10/1982</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>001182624288</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Vũ Ngọc Phương</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>17/05/1999</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>001199206806</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Hà Phước Thủy</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>06/01/1996</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>001096941769</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Hà Thảo Bích</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>26/04/1999</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Giới tính Nữ</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>001199434871</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
         <is>
           <t>Du Lịch</t>
         </is>

--- a/danh_sach_nguoi_yeu_cau.xlsx
+++ b/danh_sach_nguoi_yeu_cau.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,22 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Thái Đức Khánh</t>
+          <t>Nguyễn Linh Nhi</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>23/09/1989</t>
+          <t>20/12/1990</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>001089700952</t>
+          <t>026190893045</t>
         </is>
       </c>
       <c r="E1" t="inlineStr"/>
@@ -452,7 +452,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -472,22 +472,22 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -514,22 +514,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phạm Thị Hạnh</t>
+          <t>Ngô Sơn Sơn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26/03/1989</t>
+          <t>03/09/1982</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001189162218</t>
+          <t>026082334130</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -562,22 +562,22 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -604,22 +604,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hoàng Quốc Khoa</t>
+          <t>Ngô Phương Linh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>27/02/1994</t>
+          <t>21/09/1984</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001094718200</t>
+          <t>026184452190</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -652,22 +652,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -694,12 +694,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thái Thành Thủy</t>
+          <t>Đoàn Tuấn Cường</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22/04/1997</t>
+          <t>10/11/1993</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>001097085189</t>
+          <t>026093190154</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -742,22 +742,22 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -784,22 +784,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thái Hạnh Linh</t>
+          <t>Trần Quốc Hưng</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02/10/1989</t>
+          <t>04/02/1976</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>001189082411</t>
+          <t>026076520412</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -832,22 +832,22 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -874,12 +874,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vũ Minh Tuấn</t>
+          <t>Trịnh Tuấn Linh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24/06/1993</t>
+          <t>11/10/1973</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>001093009053</t>
+          <t>026073585813</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -902,7 +902,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -922,22 +922,22 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -964,12 +964,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phạm Phương Hà</t>
+          <t>Hà Thảo My</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23/10/1995</t>
+          <t>05/05/1986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>001195781983</t>
+          <t>026186985881</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1012,22 +1012,22 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1054,12 +1054,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lý Kiên Dương</t>
+          <t>Đặng Đình Thành</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23/06/1997</t>
+          <t>14/11/1988</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>001097843165</t>
+          <t>026088021764</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1102,22 +1102,22 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1144,22 +1144,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mai Phước Hiếu</t>
+          <t>Đinh Thảo Xuân</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15/12/1988</t>
+          <t>05/02/1985</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Giới tính Nam</t>
+          <t>Giới tính Nữ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>001088795979</t>
+          <t>026185845048</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1192,22 +1192,22 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1234,12 +1234,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trương Thị Bích</t>
+          <t>Vũ Phương Trang</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27/08/1980</t>
+          <t>06/09/1993</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>001180830883</t>
+          <t>026193292645</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1282,22 +1282,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1324,12 +1324,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vũ Thảo Trang</t>
+          <t>Vũ Ngọc Cẩm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13/05/1999</t>
+          <t>17/10/1985</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>001199388968</t>
+          <t>026185140961</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1372,22 +1372,22 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1397,12 +1397,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1414,12 +1414,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mai Tuấn Cường</t>
+          <t>Đặng Đức Quân</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14/05/1994</t>
+          <t>11/11/1984</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>001094169625</t>
+          <t>026084363200</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Đặng Hạnh Linh</t>
+          <t>Đinh Thu Trâm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15/02/1999</t>
+          <t>22/05/1993</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>001199695884</t>
+          <t>026193437961</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1552,22 +1552,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1577,12 +1577,12 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1594,12 +1594,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hà Phúc Dũng</t>
+          <t>Võ Thành Tuấn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02/12/1996</t>
+          <t>10/12/1982</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>001096977494</t>
+          <t>026082439756</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1642,22 +1642,22 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đoàn Linh Thảo</t>
+          <t>Đinh Ngọc Diễm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24/10/1984</t>
+          <t>18/05/1994</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>001184503353</t>
+          <t>026194801514</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1732,22 +1732,22 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1757,12 +1757,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1774,22 +1774,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Võ Ngọc Nhi</t>
+          <t>Trần Minh Bình</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>07/01/1994</t>
+          <t>10/02/1978</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Giới tính Nữ</t>
+          <t>Giới tính Nam</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>001194182603</t>
+          <t>026078271800</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1822,22 +1822,22 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Thành Phố Hà Nội</t>
+          <t>Vĩnh Phúc</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Huyện Sóc Sơn</t>
+          <t>Sông Lô</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Xã Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bắc Sơn</t>
+          <t>Nhân Đạo</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1847,375 +1847,15 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>02/07/2023</t>
+          <t>08/07/2023</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>03/07/2023</t>
+          <t>09/07/2023</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Huỳnh Phúc Minh</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>22/09/1997</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>001097762677</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>02/07/2023</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>03/07/2023</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Hoàng Nhật Linh</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>02/05/1999</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>001099206618</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>02/07/2023</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>03/07/2023</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Thái Công Hải</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>22/10/1998</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>001098585726</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>02/07/2023</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>03/07/2023</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Du Lịch</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Thái Khoa Kiên</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>10/11/1995</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Giới tính Nam</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>001095539779</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Tự do</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Cộng hòa xã hội chủ nghĩa Việt Nam</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Thành Phố Hà Nội</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Huyện Sóc Sơn</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Xã Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Bắc Sơn</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Tạm trú</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>02/07/2023</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>03/07/2023</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
         <is>
           <t>Du Lịch</t>
         </is>
